--- a/AHP.xlsx
+++ b/AHP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\RK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49EF8584-4868-427A-9455-87EFEDD5EBF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADF7822-7BB5-4783-B4DA-0D2986B54D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F00971C1-31A3-4460-A34D-A7C7485DA2B7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F00971C1-31A3-4460-A34D-A7C7485DA2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="45">
   <si>
     <t>Value</t>
   </si>
@@ -99,6 +99,75 @@
   </si>
   <si>
     <t>% dari cost</t>
+  </si>
+  <si>
+    <t>req 1 =</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mengelola data karyawan</t>
+  </si>
+  <si>
+    <t>req 2 =</t>
+  </si>
+  <si>
+    <t>req 3 =</t>
+  </si>
+  <si>
+    <t>req 4 =</t>
+  </si>
+  <si>
+    <t>req 5 =</t>
+  </si>
+  <si>
+    <t>req 6 =</t>
+  </si>
+  <si>
+    <t>req 7 =</t>
+  </si>
+  <si>
+    <t>Mengelola data dari berbagai divisi perusahaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Menyajikan data dalam bentuk grafik dan slidesho</t>
+  </si>
+  <si>
+    <t>Melakukan export data dalam format excel dan pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Menampilkan peta sebaran pemasaran produk</t>
+  </si>
+  <si>
+    <t>Menampilkan peta sebaran penjualan produk</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Melakukan pendataan kegiatan sebelum dan sesudah produksi</t>
+  </si>
+  <si>
+    <t>High priority =</t>
+  </si>
+  <si>
+    <t>Medium Priority =</t>
+  </si>
+  <si>
+    <t>Low Priority =</t>
+  </si>
+  <si>
+    <t>rendah</t>
+  </si>
+  <si>
+    <t>sedang</t>
+  </si>
+  <si>
+    <t>tinggi</t>
+  </si>
+  <si>
+    <t>sangat tinggi</t>
+  </si>
+  <si>
+    <t>Req4</t>
+  </si>
+  <si>
+    <t>Req 1, Req 2, Req 5, Req 6, Req 7</t>
   </si>
 </sst>
 </file>
@@ -106,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -117,7 +186,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +214,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -252,14 +333,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC1CFC4-BB8B-42C0-8162-A7EE9226EAD3}">
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,10 +672,13 @@
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="11.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.77734375" customWidth="1"/>
+    <col min="14" max="14" width="29" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" customWidth="1"/>
     <col min="16" max="16" width="14.109375" customWidth="1"/>
     <col min="17" max="17" width="12.33203125" customWidth="1"/>
     <col min="18" max="18" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.21875" customWidth="1"/>
     <col min="21" max="21" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.21875" customWidth="1"/>
     <col min="25" max="25" width="10.44140625" customWidth="1"/>
@@ -630,16 +716,16 @@
         <v>1</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="R2" s="16" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="S2" s="16" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -1290,62 +1376,62 @@
         <v>15</v>
       </c>
       <c r="B20" s="12">
-        <f>SUM(B13:B19)</f>
+        <f t="shared" ref="B20:H20" si="0">SUM(B13:B19)</f>
         <v>10.083333333333334</v>
       </c>
       <c r="C20" s="12">
-        <f>SUM(C13:C19)</f>
+        <f t="shared" si="0"/>
         <v>6.2833333333333341</v>
       </c>
       <c r="D20" s="12">
-        <f>SUM(D13:D19)</f>
+        <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
       <c r="E20" s="12">
-        <f>SUM(E13:E19)</f>
+        <f t="shared" si="0"/>
         <v>14.833333333333334</v>
       </c>
       <c r="F20" s="12">
-        <f>SUM(F13:F19)</f>
+        <f t="shared" si="0"/>
         <v>3.4499999999999997</v>
       </c>
       <c r="G20" s="12">
-        <f>SUM(G13:G19)</f>
+        <f t="shared" si="0"/>
         <v>3.4499999999999997</v>
       </c>
       <c r="H20" s="11">
-        <f>SUM(H13:H19)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="O20" s="16" t="s">
         <v>15</v>
       </c>
       <c r="P20" s="21">
-        <f>SUM(P13:P19)</f>
+        <f t="shared" ref="P20:V20" si="1">SUM(P13:P19)</f>
         <v>9.0333333333333332</v>
       </c>
       <c r="Q20" s="21">
-        <f>SUM(Q13:Q19)</f>
+        <f t="shared" si="1"/>
         <v>5.25</v>
       </c>
       <c r="R20" s="21">
-        <f>SUM(R13:R19)</f>
+        <f t="shared" si="1"/>
         <v>13.75</v>
       </c>
       <c r="S20" s="21">
-        <f>SUM(S13:S19)</f>
+        <f t="shared" si="1"/>
         <v>19.333333333333332</v>
       </c>
       <c r="T20" s="21">
-        <f>SUM(T13:T19)</f>
+        <f t="shared" si="1"/>
         <v>5.25</v>
       </c>
       <c r="U20" s="21">
-        <f>SUM(U13:U19)</f>
+        <f t="shared" si="1"/>
         <v>2.926190476190476</v>
       </c>
       <c r="V20" s="20">
-        <f>SUM(V13:V19)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
@@ -1526,43 +1612,43 @@
         <v>3</v>
       </c>
       <c r="B25" s="25">
-        <f t="shared" ref="B25:B30" si="0">($B14 / $B$20)</f>
+        <f t="shared" ref="B25:B30" si="2">($B14 / $B$20)</f>
         <v>0.19834710743801651</v>
       </c>
       <c r="C25" s="25">
-        <f t="shared" ref="C25:C30" si="1">($C14 / $C$20)</f>
+        <f t="shared" ref="C25:C30" si="3">($C14 / $C$20)</f>
         <v>0.15915119363395225</v>
       </c>
       <c r="D25" s="25">
-        <f t="shared" ref="D25:D30" si="2">($D14 / $D$20)</f>
+        <f t="shared" ref="D25:D30" si="4">($D14 / $D$20)</f>
         <v>0.1951219512195122</v>
       </c>
       <c r="E25" s="25">
-        <f t="shared" ref="E25:E30" si="3">($E14 / $E$20)</f>
+        <f t="shared" ref="E25:E30" si="5">($E14 / $E$20)</f>
         <v>0.20224719101123595</v>
       </c>
       <c r="F25" s="25">
-        <f t="shared" ref="F25:F30" si="4">($F14 / $F$20)</f>
+        <f t="shared" ref="F25:F30" si="6">($F14 / $F$20)</f>
         <v>0.14492753623188406</v>
       </c>
       <c r="G25" s="25">
-        <f t="shared" ref="G25:G30" si="5">($G14 / $G$20)</f>
+        <f t="shared" ref="G25:G30" si="7">($G14 / $G$20)</f>
         <v>0.14492753623188406</v>
       </c>
       <c r="H25" s="25">
-        <f t="shared" ref="H25:H30" si="6">($H14 / $H$20)</f>
+        <f t="shared" ref="H25:H30" si="8">($H14 / $H$20)</f>
         <v>0.18518518518518517</v>
       </c>
       <c r="I25" s="26">
-        <f t="shared" ref="I25:I30" si="7">SUM($B25:$H25)</f>
+        <f t="shared" ref="I25:I30" si="9">SUM($B25:$H25)</f>
         <v>1.2299077009516701</v>
       </c>
       <c r="J25" s="26">
-        <f t="shared" ref="J25:J30" si="8">($I25/7)</f>
+        <f t="shared" ref="J25:J30" si="10">($I25/7)</f>
         <v>0.17570110013595289</v>
       </c>
       <c r="K25" s="14">
-        <f t="shared" ref="K25:K30" si="9">($J25)</f>
+        <f t="shared" ref="K25:K30" si="11">($J25)</f>
         <v>0.17570110013595289</v>
       </c>
       <c r="L25" s="6">
@@ -1572,43 +1658,43 @@
         <v>3</v>
       </c>
       <c r="P25" s="27">
-        <f t="shared" ref="P25:P30" si="10">($P14 / $P$20)</f>
+        <f t="shared" ref="P25:P30" si="12">($P14 / $P$20)</f>
         <v>0.22140221402214022</v>
       </c>
       <c r="Q25" s="27">
-        <f t="shared" ref="Q25:Q30" si="11">($Q14 / $Q$20)</f>
+        <f t="shared" ref="Q25:Q30" si="13">($Q14 / $Q$20)</f>
         <v>0.19047619047619047</v>
       </c>
       <c r="R25" s="27">
-        <f t="shared" ref="R25:R30" si="12">($R14 / $R$20)</f>
+        <f t="shared" ref="R25:R30" si="14">($R14 / $R$20)</f>
         <v>0.21818181818181817</v>
       </c>
       <c r="S25" s="27">
-        <f t="shared" ref="S25:S30" si="13">($S14 / $S$20)</f>
+        <f t="shared" ref="S25:S30" si="15">($S14 / $S$20)</f>
         <v>0.20689655172413796</v>
       </c>
       <c r="T25" s="27">
-        <f t="shared" ref="T25:T30" si="14">($T14 / $T$20)</f>
+        <f t="shared" ref="T25:T30" si="16">($T14 / $T$20)</f>
         <v>0.19047619047619047</v>
       </c>
       <c r="U25" s="27">
-        <f t="shared" ref="U25:U30" si="15">($U14 / $U$20)</f>
+        <f t="shared" ref="U25:U30" si="17">($U14 / $U$20)</f>
         <v>0.17087062652563059</v>
       </c>
       <c r="V25" s="27">
-        <f t="shared" ref="V25:V30" si="16">($V14 / $V$20)</f>
+        <f t="shared" ref="V25:V30" si="18">($V14 / $V$20)</f>
         <v>0.1875</v>
       </c>
       <c r="W25" s="28">
-        <f t="shared" ref="W25:W30" si="17">SUM($P25:$V25)</f>
+        <f t="shared" ref="W25:W30" si="19">SUM($P25:$V25)</f>
         <v>1.3858035914061078</v>
       </c>
       <c r="X25" s="28">
-        <f t="shared" ref="X25:X30" si="18">($W25/7)</f>
+        <f t="shared" ref="X25:X30" si="20">($W25/7)</f>
         <v>0.19797194162944395</v>
       </c>
       <c r="Y25" s="23">
-        <f t="shared" ref="Y25:Y30" si="19">($X25)</f>
+        <f t="shared" ref="Y25:Y30" si="21">($X25)</f>
         <v>0.19797194162944395</v>
       </c>
       <c r="Z25" s="22">
@@ -1620,43 +1706,43 @@
         <v>4</v>
       </c>
       <c r="B26" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.3057851239669415E-2</v>
       </c>
       <c r="C26" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.9787798408488062E-2</v>
       </c>
       <c r="D26" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.878048780487805E-2</v>
       </c>
       <c r="E26" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.3707865168539325E-2</v>
       </c>
       <c r="F26" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.7971014492753631E-2</v>
       </c>
       <c r="G26" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.7971014492753631E-2</v>
       </c>
       <c r="H26" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="I26" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.34535010568115621</v>
       </c>
       <c r="J26" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.9335729383022317E-2</v>
       </c>
       <c r="K26" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>4.9335729383022317E-2</v>
       </c>
       <c r="L26" s="6">
@@ -1666,43 +1752,43 @@
         <v>4</v>
       </c>
       <c r="P26" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.5350553505535055E-2</v>
       </c>
       <c r="Q26" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.3492063492063489E-2</v>
       </c>
       <c r="R26" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.2727272727272724E-2</v>
       </c>
       <c r="S26" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.10344827586206898</v>
       </c>
       <c r="T26" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>6.3492063492063489E-2</v>
       </c>
       <c r="U26" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.5435313262815296E-2</v>
       </c>
       <c r="V26" s="27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
       <c r="W26" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.56894554234181904</v>
       </c>
       <c r="X26" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8.1277934620259867E-2</v>
       </c>
       <c r="Y26" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>8.1277934620259867E-2</v>
       </c>
       <c r="Z26" s="22">
@@ -1714,43 +1800,43 @@
         <v>5</v>
       </c>
       <c r="B27" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.9586776859504127E-2</v>
       </c>
       <c r="C27" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.3050397877984073E-2</v>
       </c>
       <c r="D27" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.7560975609756101E-2</v>
       </c>
       <c r="E27" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.741573033707865E-2</v>
       </c>
       <c r="F27" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.2463768115942032E-2</v>
       </c>
       <c r="G27" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.2463768115942032E-2</v>
       </c>
       <c r="H27" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="I27" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.5236525280273181</v>
       </c>
       <c r="J27" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.4807504003902583E-2</v>
       </c>
       <c r="K27" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>7.4807504003902583E-2</v>
       </c>
       <c r="L27" s="6">
@@ -1760,43 +1846,43 @@
         <v>5</v>
       </c>
       <c r="P27" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.6900369003690037E-2</v>
       </c>
       <c r="Q27" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="R27" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.6363636363636362E-2</v>
       </c>
       <c r="S27" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.1724137931034489E-2</v>
       </c>
       <c r="T27" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="U27" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.8348250610252251E-2</v>
       </c>
       <c r="V27" s="27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.375E-2</v>
       </c>
       <c r="W27" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.38232448914670836</v>
       </c>
       <c r="X27" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.4617784163815478E-2</v>
       </c>
       <c r="Y27" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5.4617784163815478E-2</v>
       </c>
       <c r="Z27" s="22">
@@ -1808,43 +1894,43 @@
         <v>6</v>
       </c>
       <c r="B28" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.2975206611570248</v>
       </c>
       <c r="C28" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.3183023872679045</v>
       </c>
       <c r="D28" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.24390243902439024</v>
       </c>
       <c r="E28" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.2696629213483146</v>
       </c>
       <c r="F28" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.28985507246376813</v>
       </c>
       <c r="G28" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.28985507246376813</v>
       </c>
       <c r="H28" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="I28" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9313207759473925</v>
       </c>
       <c r="J28" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.27590296799248465</v>
       </c>
       <c r="K28" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.27590296799248465</v>
       </c>
       <c r="L28" s="6">
@@ -1854,43 +1940,43 @@
         <v>6</v>
       </c>
       <c r="P28" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.22140221402214022</v>
       </c>
       <c r="Q28" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.19047619047619047</v>
       </c>
       <c r="R28" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.21818181818181817</v>
       </c>
       <c r="S28" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.20689655172413796</v>
       </c>
       <c r="T28" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.19047619047619047</v>
       </c>
       <c r="U28" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.17087062652563059</v>
       </c>
       <c r="V28" s="27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.1875</v>
       </c>
       <c r="W28" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.3858035914061078</v>
       </c>
       <c r="X28" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.19797194162944395</v>
       </c>
       <c r="Y28" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.19797194162944395</v>
       </c>
       <c r="Z28" s="22">
@@ -1902,43 +1988,43 @@
         <v>7</v>
       </c>
       <c r="B29" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.2975206611570248</v>
       </c>
       <c r="C29" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.3183023872679045</v>
       </c>
       <c r="D29" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.24390243902439024</v>
       </c>
       <c r="E29" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.2696629213483146</v>
       </c>
       <c r="F29" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.28985507246376813</v>
       </c>
       <c r="G29" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.28985507246376813</v>
       </c>
       <c r="H29" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="I29" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.9313207759473925</v>
       </c>
       <c r="J29" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.27590296799248465</v>
       </c>
       <c r="K29" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.27590296799248465</v>
       </c>
       <c r="L29" s="6">
@@ -1948,43 +2034,43 @@
         <v>7</v>
       </c>
       <c r="P29" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.33210332103321033</v>
       </c>
       <c r="Q29" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.38095238095238093</v>
       </c>
       <c r="R29" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.29090909090909089</v>
       </c>
       <c r="S29" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.25862068965517243</v>
       </c>
       <c r="T29" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.38095238095238093</v>
       </c>
       <c r="U29" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.34174125305126118</v>
       </c>
       <c r="V29" s="27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.21875</v>
       </c>
       <c r="W29" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.2040291165534969</v>
       </c>
       <c r="X29" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.31486130236478527</v>
       </c>
       <c r="Y29" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.31486130236478527</v>
       </c>
       <c r="Z29" s="22">
@@ -1996,43 +2082,43 @@
         <v>8</v>
       </c>
       <c r="B30" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.4793388429752063E-2</v>
       </c>
       <c r="C30" s="25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.1830238726790451E-2</v>
       </c>
       <c r="D30" s="25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4390243902439025E-2</v>
       </c>
       <c r="E30" s="25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.247191011235955E-2</v>
       </c>
       <c r="F30" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.8309178743961352E-2</v>
       </c>
       <c r="G30" s="25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.8309178743961352E-2</v>
       </c>
       <c r="H30" s="25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="I30" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.2371411756963008</v>
       </c>
       <c r="J30" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.3877310813757257E-2</v>
       </c>
       <c r="K30" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.3877310813757257E-2</v>
       </c>
       <c r="L30" s="6">
@@ -2042,43 +2128,43 @@
         <v>8</v>
       </c>
       <c r="P30" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.2140221402214024E-2</v>
       </c>
       <c r="Q30" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.1746031746031744E-2</v>
       </c>
       <c r="R30" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.8181818181818181E-2</v>
       </c>
       <c r="S30" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.7241379310344827E-2</v>
       </c>
       <c r="T30" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>3.1746031746031744E-2</v>
       </c>
       <c r="U30" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.8820179007323029E-2</v>
       </c>
       <c r="V30" s="27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.125E-2</v>
       </c>
       <c r="W30" s="28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.20112566139376356</v>
       </c>
       <c r="X30" s="28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.8732237341966223E-2</v>
       </c>
       <c r="Y30" s="23">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.8732237341966223E-2</v>
       </c>
       <c r="Z30" s="22">
@@ -2087,6 +2173,80 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="N34" s="30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N35" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AHP.xlsx
+++ b/AHP.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\RK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADF7822-7BB5-4783-B4DA-0D2986B54D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1756BB3-D222-4C0E-8569-C1AFAA29E394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F00971C1-31A3-4460-A34D-A7C7485DA2B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
   <si>
     <t>Value</t>
   </si>
@@ -164,10 +167,49 @@
     <t>sangat tinggi</t>
   </si>
   <si>
-    <t>Req4</t>
-  </si>
-  <si>
-    <t>Req 1, Req 2, Req 5, Req 6, Req 7</t>
+    <t>Kebutuhan</t>
+  </si>
+  <si>
+    <t>High Margin</t>
+  </si>
+  <si>
+    <t>Low Margin</t>
+  </si>
+  <si>
+    <t>Req. 1</t>
+  </si>
+  <si>
+    <t>Req. 2</t>
+  </si>
+  <si>
+    <t>Req. 3</t>
+  </si>
+  <si>
+    <t>Req. 4</t>
+  </si>
+  <si>
+    <t>Req. 5</t>
+  </si>
+  <si>
+    <t>Req. 6</t>
+  </si>
+  <si>
+    <t>Req. 7</t>
+  </si>
+  <si>
+    <t>High if ratio value/cost &gt;= 2.0</t>
+  </si>
+  <si>
+    <t>Medium if ratio falls between 0.5 to 2.0</t>
+  </si>
+  <si>
+    <t>Otherwise, Low</t>
+  </si>
+  <si>
+    <t>Value/Cost</t>
+  </si>
+  <si>
+    <t>Req1,Req2,Req3,Req4,Req5,Req6,Req7</t>
   </si>
 </sst>
 </file>
@@ -177,7 +219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +227,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD6EE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -343,6 +410,29 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,6 +448,1736 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ID"/>
+              <a:t>Mapping</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ID" baseline="0"/>
+              <a:t> ROI</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ID"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Requirements</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:alpha val="96000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-775F-42EE-8D43-2A6CBB837082}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Req.</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> 1</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-775F-42EE-8D43-2A6CBB837082}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Req.</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> 2</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-775F-42EE-8D43-2A6CBB837082}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Req. 3</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-775F-42EE-8D43-2A6CBB837082}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Req.</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> 4</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-775F-42EE-8D43-2A6CBB837082}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Req.</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> 5</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-775F-42EE-8D43-2A6CBB837082}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Req. 6</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-775F-42EE-8D43-2A6CBB837082}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D9516103-103E-45B0-81B5-2C32E1B01F72}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>Req. 7</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-775F-42EE-8D43-2A6CBB837082}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1277934620259867E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4617784163815478E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19797194162944395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31486130236478527</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8732237341966223E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$41:$C$48</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11447241967839562</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17570110013595289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9335729383022317E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4807504003902583E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27590296799248465</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27590296799248465</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3877310813757257E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>[1]AHP!$A$30:$A$34</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>Req. 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Req. 2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Req. 3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Req. 4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Req. 5</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-775F-42EE-8D43-2A6CBB837082}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>High Margin</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1277934620259867E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4617784163815478E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19797194162944395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31486130236478527</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8732237341966223E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$41:$D$48</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2492</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16255586924051973</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10923556832763096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39594388325888791</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62972260472957053</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7464474683932447E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-775F-42EE-8D43-2A6CBB837082}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Low Margin</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$41:$B$48</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1277934620259867E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4617784163815478E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19797194162944395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31486130236478527</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8732237341966223E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$41:$E$48</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0638967310129934E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7308892081907739E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.8985970814721977E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15743065118239263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4366118670983112E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-775F-42EE-8D43-2A6CBB837082}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2110472431"/>
+        <c:axId val="2111478015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2110472431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2111478015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2111478015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>Value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110472431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>740229</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>594713</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>102136</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{857D07A1-C7D7-4DBE-BA4F-B77A23B04B24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Wieger"/>
+      <sheetName val="AHP"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="29">
+          <cell r="B29">
+            <v>0</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+          <cell r="E29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Req. 1</v>
+          </cell>
+          <cell r="B30">
+            <v>0.62383383682704863</v>
+          </cell>
+          <cell r="C30">
+            <v>0.11180085643811251</v>
+          </cell>
+          <cell r="D30">
+            <v>1.2476676736540973</v>
+          </cell>
+          <cell r="E30">
+            <v>0.31191691841352431</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Req. 2</v>
+          </cell>
+          <cell r="B31">
+            <v>0.12449326920658518</v>
+          </cell>
+          <cell r="C31">
+            <v>0.11180085643811251</v>
+          </cell>
+          <cell r="D31">
+            <v>0.24898653841317037</v>
+          </cell>
+          <cell r="E31">
+            <v>6.2246634603292592E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Req. 3</v>
+          </cell>
+          <cell r="B32">
+            <v>0.10544565015896615</v>
+          </cell>
+          <cell r="C32">
+            <v>0.24722764740447589</v>
+          </cell>
+          <cell r="D32">
+            <v>0.2108913003179323</v>
+          </cell>
+          <cell r="E32">
+            <v>5.2722825079483074E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Req. 4</v>
+          </cell>
+          <cell r="B33">
+            <v>4.078159364843377E-2</v>
+          </cell>
+          <cell r="C33">
+            <v>3.3239331492799645E-2</v>
+          </cell>
+          <cell r="D33">
+            <v>8.156318729686754E-2</v>
+          </cell>
+          <cell r="E33">
+            <v>2.0390796824216885E-2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Req. 5</v>
+          </cell>
+          <cell r="B34">
+            <v>0.10544565015896615</v>
+          </cell>
+          <cell r="C34">
+            <v>0.49593130822649945</v>
+          </cell>
+          <cell r="D34">
+            <v>0.2108913003179323</v>
+          </cell>
+          <cell r="E34">
+            <v>5.2722825079483074E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -657,10 +2477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC1CFC4-BB8B-42C0-8162-A7EE9226EAD3}">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,10 +2490,11 @@
     <col min="3" max="3" width="12.21875" customWidth="1"/>
     <col min="4" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="11.109375" customWidth="1"/>
     <col min="13" max="13" width="16.77734375" customWidth="1"/>
-    <col min="14" max="14" width="29" customWidth="1"/>
+    <col min="14" max="14" width="33.33203125" customWidth="1"/>
     <col min="15" max="15" width="15.5546875" customWidth="1"/>
     <col min="16" max="16" width="14.109375" customWidth="1"/>
     <col min="17" max="17" width="12.33203125" customWidth="1"/>
@@ -2189,12 +4010,13 @@
       <c r="B33" t="s">
         <v>30</v>
       </c>
+      <c r="I33" s="31" t="s">
+        <v>53</v>
+      </c>
       <c r="M33" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="N33" s="30" t="s">
-        <v>43</v>
-      </c>
+      <c r="N33" s="30"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
@@ -2203,26 +4025,30 @@
       <c r="B34" t="s">
         <v>31</v>
       </c>
+      <c r="I34" s="31" t="s">
+        <v>54</v>
+      </c>
       <c r="M34" s="29" t="s">
         <v>37</v>
       </c>
       <c r="N34" s="30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B35" t="s">
         <v>32</v>
       </c>
+      <c r="I35" s="32" t="s">
+        <v>55</v>
+      </c>
       <c r="M35" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="N35" s="30" t="s">
-        <v>4</v>
-      </c>
+      <c r="N35" s="30"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
@@ -2248,8 +4074,208 @@
         <v>35</v>
       </c>
     </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="35"/>
+      <c r="B41" s="33">
+        <v>0</v>
+      </c>
+      <c r="C41" s="33">
+        <v>0</v>
+      </c>
+      <c r="D41" s="33">
+        <v>0</v>
+      </c>
+      <c r="E41" s="33">
+        <v>0</v>
+      </c>
+      <c r="F41" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="37">
+        <v>0.1246</v>
+      </c>
+      <c r="C42" s="37">
+        <v>0.11447241967839562</v>
+      </c>
+      <c r="D42" s="37">
+        <f>$B42*2</f>
+        <v>0.2492</v>
+      </c>
+      <c r="E42" s="37">
+        <f>$B42*0.5</f>
+        <v>6.2300000000000001E-2</v>
+      </c>
+      <c r="F42" s="38">
+        <f>$C42/$B42</f>
+        <v>0.9187192590561446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="37">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="C43" s="37">
+        <v>0.17570110013595289</v>
+      </c>
+      <c r="D43" s="37">
+        <f t="shared" ref="D43:D48" si="22">$B43*2</f>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="E43" s="37">
+        <f t="shared" ref="E43:E48" si="23">$B43*0.5</f>
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="F43" s="38">
+        <f t="shared" ref="F43:F48" si="24">$C43/$B43</f>
+        <v>0.8873792936159236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="37">
+        <v>8.1277934620259867E-2</v>
+      </c>
+      <c r="C44" s="37">
+        <v>4.9335729383022317E-2</v>
+      </c>
+      <c r="D44" s="37">
+        <f t="shared" si="22"/>
+        <v>0.16255586924051973</v>
+      </c>
+      <c r="E44" s="37">
+        <f t="shared" si="23"/>
+        <v>4.0638967310129934E-2</v>
+      </c>
+      <c r="F44" s="38">
+        <f t="shared" si="24"/>
+        <v>0.6070002838227212</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="37">
+        <v>5.4617784163815478E-2</v>
+      </c>
+      <c r="C45" s="37">
+        <v>7.4807504003902583E-2</v>
+      </c>
+      <c r="D45" s="37">
+        <f t="shared" si="22"/>
+        <v>0.10923556832763096</v>
+      </c>
+      <c r="E45" s="37">
+        <f t="shared" si="23"/>
+        <v>2.7308892081907739E-2</v>
+      </c>
+      <c r="F45" s="38">
+        <f t="shared" si="24"/>
+        <v>1.3696546857252931</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="37">
+        <v>0.19797194162944395</v>
+      </c>
+      <c r="C46" s="37">
+        <v>0.27590296799248465</v>
+      </c>
+      <c r="D46" s="37">
+        <f t="shared" si="22"/>
+        <v>0.39594388325888791</v>
+      </c>
+      <c r="E46" s="37">
+        <f t="shared" si="23"/>
+        <v>9.8985970814721977E-2</v>
+      </c>
+      <c r="F46" s="38">
+        <f t="shared" si="24"/>
+        <v>1.393646825512824</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="39">
+        <v>0.31486130236478527</v>
+      </c>
+      <c r="C47" s="39">
+        <v>0.27590296799248465</v>
+      </c>
+      <c r="D47" s="37">
+        <f t="shared" si="22"/>
+        <v>0.62972260472957053</v>
+      </c>
+      <c r="E47" s="37">
+        <f t="shared" si="23"/>
+        <v>0.15743065118239263</v>
+      </c>
+      <c r="F47" s="38">
+        <f t="shared" si="24"/>
+        <v>0.87626826771120603</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="39">
+        <v>2.8732237341966223E-2</v>
+      </c>
+      <c r="C48" s="39">
+        <v>3.3877310813757257E-2</v>
+      </c>
+      <c r="D48" s="37">
+        <f t="shared" si="22"/>
+        <v>5.7464474683932447E-2</v>
+      </c>
+      <c r="E48" s="37">
+        <f t="shared" si="23"/>
+        <v>1.4366118670983112E-2</v>
+      </c>
+      <c r="F48" s="38">
+        <f t="shared" si="24"/>
+        <v>1.1790697122035865</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/AHP.xlsx
+++ b/AHP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\RK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\Compressed\Penugasan-Prioritisasi-FP--master\Penugasan-Prioritisasi-FP--master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1756BB3-D222-4C0E-8569-C1AFAA29E394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EA43B1-8CC1-49FB-AC84-4404C9CC5E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{F00971C1-31A3-4460-A34D-A7C7485DA2B7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="59">
   <si>
     <t>Value</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>Req1,Req2,Req3,Req4,Req5,Req6,Req7</t>
+  </si>
+  <si>
+    <t>Urutan</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +248,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -344,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -433,6 +444,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2082,96 +2099,30 @@
           <cell r="B29">
             <v>0</v>
           </cell>
-          <cell r="D29">
-            <v>0</v>
-          </cell>
-          <cell r="E29">
-            <v>0</v>
-          </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
             <v>Req. 1</v>
-          </cell>
-          <cell r="B30">
-            <v>0.62383383682704863</v>
-          </cell>
-          <cell r="C30">
-            <v>0.11180085643811251</v>
-          </cell>
-          <cell r="D30">
-            <v>1.2476676736540973</v>
-          </cell>
-          <cell r="E30">
-            <v>0.31191691841352431</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
             <v>Req. 2</v>
           </cell>
-          <cell r="B31">
-            <v>0.12449326920658518</v>
-          </cell>
-          <cell r="C31">
-            <v>0.11180085643811251</v>
-          </cell>
-          <cell r="D31">
-            <v>0.24898653841317037</v>
-          </cell>
-          <cell r="E31">
-            <v>6.2246634603292592E-2</v>
-          </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
             <v>Req. 3</v>
-          </cell>
-          <cell r="B32">
-            <v>0.10544565015896615</v>
-          </cell>
-          <cell r="C32">
-            <v>0.24722764740447589</v>
-          </cell>
-          <cell r="D32">
-            <v>0.2108913003179323</v>
-          </cell>
-          <cell r="E32">
-            <v>5.2722825079483074E-2</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
             <v>Req. 4</v>
           </cell>
-          <cell r="B33">
-            <v>4.078159364843377E-2</v>
-          </cell>
-          <cell r="C33">
-            <v>3.3239331492799645E-2</v>
-          </cell>
-          <cell r="D33">
-            <v>8.156318729686754E-2</v>
-          </cell>
-          <cell r="E33">
-            <v>2.0390796824216885E-2</v>
-          </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
             <v>Req. 5</v>
-          </cell>
-          <cell r="B34">
-            <v>0.10544565015896615</v>
-          </cell>
-          <cell r="C34">
-            <v>0.49593130822649945</v>
-          </cell>
-          <cell r="D34">
-            <v>0.2108913003179323</v>
-          </cell>
-          <cell r="E34">
-            <v>5.2722825079483074E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2479,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC1CFC4-BB8B-42C0-8162-A7EE9226EAD3}">
   <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4093,6 +4044,9 @@
       <c r="F40" s="34" t="s">
         <v>56</v>
       </c>
+      <c r="G40" s="34" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="35"/>
@@ -4111,6 +4065,9 @@
       <c r="F41" s="34">
         <v>0</v>
       </c>
+      <c r="G41" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="36" t="s">
@@ -4134,6 +4091,9 @@
         <f>$C42/$B42</f>
         <v>0.9187192590561446</v>
       </c>
+      <c r="G42" s="40">
+        <v>4</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="36" t="s">
@@ -4157,6 +4117,9 @@
         <f t="shared" ref="F43:F48" si="24">$C43/$B43</f>
         <v>0.8873792936159236</v>
       </c>
+      <c r="G43" s="40">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="36" t="s">
@@ -4180,6 +4143,9 @@
         <f t="shared" si="24"/>
         <v>0.6070002838227212</v>
       </c>
+      <c r="G44" s="40">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="36" t="s">
@@ -4203,6 +4169,9 @@
         <f t="shared" si="24"/>
         <v>1.3696546857252931</v>
       </c>
+      <c r="G45" s="40">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="36" t="s">
@@ -4226,6 +4195,9 @@
         <f t="shared" si="24"/>
         <v>1.393646825512824</v>
       </c>
+      <c r="G46" s="40">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="36" t="s">
@@ -4249,6 +4221,9 @@
         <f t="shared" si="24"/>
         <v>0.87626826771120603</v>
       </c>
+      <c r="G47" s="40">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="36" t="s">
@@ -4271,6 +4246,9 @@
       <c r="F48" s="38">
         <f t="shared" si="24"/>
         <v>1.1790697122035865</v>
+      </c>
+      <c r="G48" s="40">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
